--- a/GA_bNa_bCa_NaK/Cond_HCM.xlsx
+++ b/GA_bNa_bCa_NaK/Cond_HCM.xlsx
@@ -447,527 +447,527 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>-0.4105765601598128</v>
+        <v>0.3885289995838507</v>
       </c>
       <c r="B2">
-        <v>0.3697600750393991</v>
+        <v>2.342934109310198</v>
       </c>
       <c r="C2">
-        <v>-0.043945346635139</v>
+        <v>0.9037631997633683</v>
       </c>
       <c r="D2">
-        <v>-0.2289431301118085</v>
+        <v>0.5902783707397506</v>
       </c>
       <c r="E2">
-        <v>0.1952876393355376</v>
+        <v>1.567789095060038</v>
       </c>
       <c r="F2">
-        <v>0.8281948240295682</v>
+        <v>6.732786206016198</v>
       </c>
       <c r="G2">
-        <v>0.6032045242993386</v>
+        <v>4.010555440947181</v>
       </c>
       <c r="H2">
-        <v>-0.2022396653031081</v>
+        <v>0.6277118605786319</v>
       </c>
       <c r="I2">
-        <v>-0.7539616985670237</v>
+        <v>0.1762131445999304</v>
       </c>
       <c r="J2">
-        <v>0.6812526550973016</v>
+        <v>4.800126194982758</v>
       </c>
       <c r="K2">
-        <v>-0.7625797795363809</v>
+        <v>0.1727508609458564</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>-0.6343813444004675</v>
+        <v>0.2320698147612039</v>
       </c>
       <c r="B3">
-        <v>0.3133030813703298</v>
+        <v>2.05732584243093</v>
       </c>
       <c r="C3">
-        <v>-0.2623265469615105</v>
+        <v>0.5466048149976465</v>
       </c>
       <c r="D3">
-        <v>0.05305387304741708</v>
+        <v>1.129936071471187</v>
       </c>
       <c r="E3">
-        <v>0.3527724274634497</v>
+        <v>2.253058288672486</v>
       </c>
       <c r="F3">
-        <v>0.5201962054905439</v>
+        <v>3.312807536447605</v>
       </c>
       <c r="G3">
-        <v>0.50020499499379</v>
+        <v>3.163770665798495</v>
       </c>
       <c r="H3">
-        <v>-0.664381656319034</v>
+        <v>0.2165799971591207</v>
       </c>
       <c r="I3">
-        <v>-0.4160012572977923</v>
+        <v>0.3837061346479222</v>
       </c>
       <c r="J3">
-        <v>-0.3178270583075334</v>
+        <v>0.4810308630406821</v>
       </c>
       <c r="K3">
-        <v>-0.7781190141063725</v>
+        <v>0.1666790382543955</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0.1230181895187001</v>
+        <v>1.327450054042723</v>
       </c>
       <c r="B4">
-        <v>0.5349466893188881</v>
+        <v>3.427257135673248</v>
       </c>
       <c r="C4">
-        <v>-0.4954913769383174</v>
+        <v>0.3195277807484191</v>
       </c>
       <c r="D4">
-        <v>0.09632129934999367</v>
+        <v>1.248306693834764</v>
       </c>
       <c r="E4">
-        <v>0.3065962609587605</v>
+        <v>2.025798573393236</v>
       </c>
       <c r="F4">
-        <v>0.7453197602933873</v>
+        <v>5.563137065509901</v>
       </c>
       <c r="G4">
-        <v>0.9916048077550599</v>
+        <v>9.808549942956468</v>
       </c>
       <c r="H4">
-        <v>-0.7984931496322393</v>
+        <v>0.159040176991391</v>
       </c>
       <c r="I4">
-        <v>-0.4112384280888446</v>
+        <v>0.3879373295498386</v>
       </c>
       <c r="J4">
-        <v>0.07633266846062295</v>
+        <v>1.192154845925078</v>
       </c>
       <c r="K4">
-        <v>-0.4876915467997993</v>
+        <v>0.3253182693162368</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>-0.6639704682281192</v>
+        <v>0.2167851512448333</v>
       </c>
       <c r="B5">
-        <v>0.3024539599728942</v>
+        <v>2.006568360263377</v>
       </c>
       <c r="C5">
-        <v>-0.2364081492731045</v>
+        <v>0.5802188724237501</v>
       </c>
       <c r="D5">
-        <v>0.0964333977516698</v>
+        <v>1.2486289434881</v>
       </c>
       <c r="E5">
-        <v>0.1656629705015832</v>
+        <v>1.464410959719144</v>
       </c>
       <c r="F5">
-        <v>0.5285270397006026</v>
+        <v>3.37696873403979</v>
       </c>
       <c r="G5">
-        <v>0.5757482916135723</v>
+        <v>3.764855322618628</v>
       </c>
       <c r="H5">
-        <v>-0.7171392543687107</v>
+        <v>0.191805362768934</v>
       </c>
       <c r="I5">
-        <v>-0.6689109778452517</v>
+        <v>0.2143329898185919</v>
       </c>
       <c r="J5">
-        <v>-0.1428394332687907</v>
+        <v>0.7197150208225268</v>
       </c>
       <c r="K5">
-        <v>-0.8162788955169825</v>
+        <v>0.1526585399772394</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>-0.8566332207603258</v>
+        <v>0.1391126998208363</v>
       </c>
       <c r="B6">
-        <v>-0.3607505748260083</v>
+        <v>0.4357620698750772</v>
       </c>
       <c r="C6">
-        <v>-0.2838223739853162</v>
+        <v>0.5202087178815878</v>
       </c>
       <c r="D6">
-        <v>-0.9829813123676943</v>
+        <v>0.1039964914414675</v>
       </c>
       <c r="E6">
-        <v>-0.1100659861974655</v>
+        <v>0.7761291835059457</v>
       </c>
       <c r="F6">
-        <v>0.4509050313190659</v>
+        <v>2.824262316147281</v>
       </c>
       <c r="G6">
-        <v>0.580329794578934</v>
+        <v>3.804782142226137</v>
       </c>
       <c r="H6">
-        <v>-0.7941112647979006</v>
+        <v>0.1606529612755653</v>
       </c>
       <c r="I6">
-        <v>0.5535235438803796</v>
+        <v>3.577037918129799</v>
       </c>
       <c r="J6">
-        <v>-0.4214995678810451</v>
+        <v>0.3788789107292285</v>
       </c>
       <c r="K6">
-        <v>-0.7492704344505849</v>
+        <v>0.1781269228647898</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>-0.9191729258671684</v>
+        <v>0.1204556218863103</v>
       </c>
       <c r="B7">
-        <v>0.2479707871403825</v>
+        <v>1.769989895774461</v>
       </c>
       <c r="C7">
-        <v>-0.2518286085685253</v>
+        <v>0.5599785497080564</v>
       </c>
       <c r="D7">
-        <v>-0.6640373571132897</v>
+        <v>0.2167517651414307</v>
       </c>
       <c r="E7">
-        <v>0.2376022525767716</v>
+        <v>1.728232836837659</v>
       </c>
       <c r="F7">
-        <v>0.279383406790755</v>
+        <v>1.902757343755657</v>
       </c>
       <c r="G7">
-        <v>-0.1405980732197805</v>
+        <v>0.7234390154352627</v>
       </c>
       <c r="H7">
-        <v>-0.7542840698183916</v>
+        <v>0.1760823923654207</v>
       </c>
       <c r="I7">
-        <v>-0.9743926424505154</v>
+        <v>0.1060736119820773</v>
       </c>
       <c r="J7">
-        <v>-0.4362228557464947</v>
+        <v>0.366249587524241</v>
       </c>
       <c r="K7">
-        <v>-0.894427617457485</v>
+        <v>0.1275182613047647</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>-0.7123506366867718</v>
+        <v>0.193931949540423</v>
       </c>
       <c r="B8">
-        <v>0.02061365688898913</v>
+        <v>1.048609183582947</v>
       </c>
       <c r="C8">
-        <v>-0.3198306220915313</v>
+        <v>0.4788167978374757</v>
       </c>
       <c r="D8">
-        <v>-0.6007395772094364</v>
+        <v>0.250761248116465</v>
       </c>
       <c r="E8">
-        <v>0.2310007195610411</v>
+        <v>1.702161328619508</v>
       </c>
       <c r="F8">
-        <v>0.2952783424827397</v>
+        <v>1.973687281334275</v>
       </c>
       <c r="G8">
-        <v>-0.8762020949390614</v>
+        <v>0.1329835447290104</v>
       </c>
       <c r="H8">
-        <v>-0.8077583465446349</v>
+        <v>0.1556831654812887</v>
       </c>
       <c r="I8">
-        <v>-0.9316749990468702</v>
+        <v>0.1170374904493383</v>
       </c>
       <c r="J8">
-        <v>-0.1021467893595039</v>
+        <v>0.7904114277427854</v>
       </c>
       <c r="K8">
-        <v>-0.7946658936690195</v>
+        <v>0.160447925515761</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>-0.4695663225796414</v>
+        <v>0.3391826878503499</v>
       </c>
       <c r="B9">
-        <v>-0.01776844136949902</v>
+        <v>0.9599123044509412</v>
       </c>
       <c r="C9">
-        <v>-0.2638504545636705</v>
+        <v>0.5446901797654851</v>
       </c>
       <c r="D9">
-        <v>-0.3960753521839552</v>
+        <v>0.4017211042558237</v>
       </c>
       <c r="E9">
-        <v>0.3680396246781144</v>
+        <v>2.33367097482467</v>
       </c>
       <c r="F9">
-        <v>0.7097593710784603</v>
+        <v>5.125773023265462</v>
       </c>
       <c r="G9">
-        <v>0.4608540082386604</v>
+        <v>2.889708319195795</v>
       </c>
       <c r="H9">
-        <v>-0.2869683926325393</v>
+        <v>0.5164539547275808</v>
       </c>
       <c r="I9">
-        <v>0.2751126152873233</v>
+        <v>1.884137594864995</v>
       </c>
       <c r="J9">
-        <v>0.1965199557092926</v>
+        <v>1.572244034974358</v>
       </c>
       <c r="K9">
-        <v>-0.7178956388154386</v>
+        <v>0.1914715976965183</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>-0.7611215812043561</v>
+        <v>0.1733318685407008</v>
       </c>
       <c r="B10">
-        <v>0.3819569016538488</v>
+        <v>2.409666287299125</v>
       </c>
       <c r="C10">
-        <v>-0.1548280977500727</v>
+        <v>0.7001190619823447</v>
       </c>
       <c r="D10">
-        <v>0.269396601044936</v>
+        <v>1.859501791231823</v>
       </c>
       <c r="E10">
-        <v>0.09700741323147198</v>
+        <v>1.250280371816755</v>
       </c>
       <c r="F10">
-        <v>0.5278505379890852</v>
+        <v>3.371712515410701</v>
       </c>
       <c r="G10">
-        <v>-0.724724743894466</v>
+        <v>0.1884843325836884</v>
       </c>
       <c r="H10">
-        <v>-0.7092902136066771</v>
+        <v>0.1953033921252812</v>
       </c>
       <c r="I10">
-        <v>-0.4661273774219895</v>
+        <v>0.3418791555560882</v>
       </c>
       <c r="J10">
-        <v>0.05509140451949498</v>
+        <v>1.135249722775129</v>
       </c>
       <c r="K10">
-        <v>-0.8071141009031555</v>
+        <v>0.1559142820035914</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>-0.8865256142554915</v>
+        <v>0.1298596971616013</v>
       </c>
       <c r="B11">
-        <v>0.354407248233093</v>
+        <v>2.261555490416062</v>
       </c>
       <c r="C11">
-        <v>-0.1443198391959332</v>
+        <v>0.7172658612731851</v>
       </c>
       <c r="D11">
-        <v>0.1353688458292071</v>
+        <v>1.365742567838785</v>
       </c>
       <c r="E11">
-        <v>0.2170856381629206</v>
+        <v>1.64848742332396</v>
       </c>
       <c r="F11">
-        <v>0.8174466724549716</v>
+        <v>6.568204597452439</v>
       </c>
       <c r="G11">
-        <v>0.7073559622552505</v>
+        <v>5.097485067726134</v>
       </c>
       <c r="H11">
-        <v>-0.2513892181259564</v>
+        <v>0.5605453856758107</v>
       </c>
       <c r="I11">
-        <v>0.4755995002127479</v>
+        <v>2.989506487480541</v>
       </c>
       <c r="J11">
-        <v>0.4452227402772274</v>
+        <v>2.787550476613125</v>
       </c>
       <c r="K11">
-        <v>-0.2197612885121963</v>
+        <v>0.6028908761068665</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>-0.4429665562927319</v>
+        <v>0.3606064111638034</v>
       </c>
       <c r="B12">
-        <v>-0.3455203360545942</v>
+        <v>0.4513148918024328</v>
       </c>
       <c r="C12">
-        <v>-0.7735563978689564</v>
+        <v>0.1684393675704982</v>
       </c>
       <c r="D12">
-        <v>-0.5326261030716073</v>
+        <v>0.2933417624188065</v>
       </c>
       <c r="E12">
-        <v>0.2042720041761104</v>
+        <v>1.600560166013142</v>
       </c>
       <c r="F12">
-        <v>0.628957926533704</v>
+        <v>4.255571841200232</v>
       </c>
       <c r="G12">
-        <v>0.7505462289236698</v>
+        <v>5.630490485406685</v>
       </c>
       <c r="H12">
-        <v>-0.5798405871923874</v>
+        <v>0.2631233639368273</v>
       </c>
       <c r="I12">
-        <v>-0.5036349558066791</v>
+        <v>0.3135920500129677</v>
       </c>
       <c r="J12">
-        <v>-0.4053890030773865</v>
+        <v>0.3931977254859018</v>
       </c>
       <c r="K12">
-        <v>-0.4985359133790088</v>
+        <v>0.3172956269775185</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>-0.8944144468077592</v>
+        <v>0.1275221285512765</v>
       </c>
       <c r="B13">
-        <v>0.5073298364007508</v>
+        <v>3.216102164972533</v>
       </c>
       <c r="C13">
-        <v>-0.2983350988688996</v>
+        <v>0.5031122607529614</v>
       </c>
       <c r="D13">
-        <v>-0.2351216319449842</v>
+        <v>0.5819402121705194</v>
       </c>
       <c r="E13">
-        <v>-0.126480975287754</v>
+        <v>0.747341371524408</v>
       </c>
       <c r="F13">
-        <v>0.5632411262709325</v>
+        <v>3.657978312308869</v>
       </c>
       <c r="G13">
-        <v>0.6355945420603319</v>
+        <v>4.321102239468864</v>
       </c>
       <c r="H13">
-        <v>-0.8418164633239826</v>
+        <v>0.1439406755718423</v>
       </c>
       <c r="I13">
-        <v>0.03027786316113647</v>
+        <v>1.072205086476591</v>
       </c>
       <c r="J13">
-        <v>-0.03975311699714713</v>
+        <v>0.9125294367464242</v>
       </c>
       <c r="K13">
-        <v>-0.1846163956697944</v>
+        <v>0.6537077057119036</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>-0.727743664102711</v>
+        <v>0.18717866087588</v>
       </c>
       <c r="B14">
-        <v>0.2512953331709824</v>
+        <v>1.783591250263619</v>
       </c>
       <c r="C14">
-        <v>-0.08647529686754149</v>
+        <v>0.8194542332837877</v>
       </c>
       <c r="D14">
-        <v>-0.02660884775541277</v>
+        <v>0.9405700642709114</v>
       </c>
       <c r="E14">
-        <v>-0.09593647930874193</v>
+        <v>0.8017953268370477</v>
       </c>
       <c r="F14">
-        <v>0.849565047527621</v>
+        <v>7.072371209337197</v>
       </c>
       <c r="G14">
-        <v>0.8125775214888026</v>
+        <v>6.494975564294586</v>
       </c>
       <c r="H14">
-        <v>-0.2824380072757626</v>
+        <v>0.5218695924265373</v>
       </c>
       <c r="I14">
-        <v>0.9161345976089289</v>
+        <v>8.243935734991069</v>
       </c>
       <c r="J14">
-        <v>-0.5020021654179095</v>
+        <v>0.3147732619281637</v>
       </c>
       <c r="K14">
-        <v>-0.4716867425693249</v>
+        <v>0.3375306823945415</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>-0.2924191720814932</v>
+        <v>0.510012508782261</v>
       </c>
       <c r="B15">
-        <v>-0.4355428735108442</v>
+        <v>0.3668234798740203</v>
       </c>
       <c r="C15">
-        <v>-0.04880066830304414</v>
+        <v>0.8937155855775868</v>
       </c>
       <c r="D15">
-        <v>-0.817528997140675</v>
+        <v>0.1522197494820712</v>
       </c>
       <c r="E15">
-        <v>-0.3009189928146486</v>
+        <v>0.5001278130864781</v>
       </c>
       <c r="F15">
-        <v>0.7492647953782137</v>
+        <v>5.613901590830118</v>
       </c>
       <c r="G15">
-        <v>0.703023176301561</v>
+        <v>5.046882297374268</v>
       </c>
       <c r="H15">
-        <v>-0.3510063182460131</v>
+        <v>0.4456497649042751</v>
       </c>
       <c r="I15">
-        <v>-0.8026347822772066</v>
+        <v>0.1575307054011087</v>
       </c>
       <c r="J15">
-        <v>0.8971285770682369</v>
+        <v>7.890937018372023</v>
       </c>
       <c r="K15">
-        <v>-0.7042670738560737</v>
+        <v>0.1975754256053735</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>-0.8098568439651206</v>
+        <v>0.1549327237864008</v>
       </c>
       <c r="B16">
-        <v>-0.1350379386475302</v>
+        <v>0.7327605186084584</v>
       </c>
       <c r="C16">
-        <v>-0.2748087561651433</v>
+        <v>0.5311182734385151</v>
       </c>
       <c r="D16">
-        <v>-0.626434237859842</v>
+        <v>0.2363555268507395</v>
       </c>
       <c r="E16">
-        <v>0.0612985578653447</v>
+        <v>1.151591784292523</v>
       </c>
       <c r="F16">
-        <v>0.5540511601400246</v>
+        <v>3.581386235538554</v>
       </c>
       <c r="G16">
-        <v>0.974400446880291</v>
+        <v>9.427584786064383</v>
       </c>
       <c r="H16">
-        <v>-0.7433398358999082</v>
+        <v>0.1805760563439894</v>
       </c>
       <c r="I16">
-        <v>0.7187635655670972</v>
+        <v>5.233154606412488</v>
       </c>
       <c r="J16">
-        <v>-0.8630804502448064</v>
+        <v>0.1370627842700785</v>
       </c>
       <c r="K16">
-        <v>-0.5181747744637862</v>
+        <v>0.3032670491675947</v>
       </c>
     </row>
   </sheetData>
